--- a/terminology.xlsx
+++ b/terminology.xlsx
@@ -846,8 +846,8 @@
   <sheetPr/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="5"/>

--- a/terminology.xlsx
+++ b/terminology.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WuMan\Master_Thesis_WuMan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18735" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18732" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="160">
   <si>
     <t>\bf{ACO-OFDM}</t>
   </si>
@@ -180,257 +185,344 @@
     <t>\bf{IFFT}</t>
   </si>
   <si>
+    <t>逆傅里叶变换</t>
+  </si>
+  <si>
+    <t>\bf{IM}</t>
+  </si>
+  <si>
+    <t>Intensity Modulation</t>
+  </si>
+  <si>
+    <t>强度调制</t>
+  </si>
+  <si>
+    <t>\bf{ISI}</t>
+  </si>
+  <si>
+    <t>Inter Symbol Interference</t>
+  </si>
+  <si>
+    <t>符号间干扰</t>
+  </si>
+  <si>
+    <t>\bf{LD}</t>
+  </si>
+  <si>
+    <t>Laser Diode</t>
+  </si>
+  <si>
+    <t>激光二极管</t>
+  </si>
+  <si>
+    <t>\bf{LED}</t>
+  </si>
+  <si>
+    <t>Light Emitting Diode</t>
+  </si>
+  <si>
+    <t>发光二极管</t>
+  </si>
+  <si>
+    <t>\bf{LMMSE}</t>
+  </si>
+  <si>
+    <t>Linear Minimum Mean Square Error</t>
+  </si>
+  <si>
+    <t>线性最小均方误差准则</t>
+  </si>
+  <si>
+    <t>\bf{LOS}</t>
+  </si>
+  <si>
+    <t>Light of Sight</t>
+  </si>
+  <si>
+    <t>直达径</t>
+  </si>
+  <si>
+    <t>\bf{LS}</t>
+  </si>
+  <si>
+    <t>Least Square</t>
+  </si>
+  <si>
+    <t>最小二乘法准则</t>
+  </si>
+  <si>
+    <t>\bf{MA}</t>
+  </si>
+  <si>
+    <t>Margin Adaptive</t>
+  </si>
+  <si>
+    <t>最小发射功率准则</t>
+  </si>
+  <si>
+    <t>\bf{MMSE}</t>
+  </si>
+  <si>
+    <t>Minimum Mean Square Error</t>
+  </si>
+  <si>
+    <t>最小均方误差估计准则</t>
+  </si>
+  <si>
+    <t>\bf{MSE}</t>
+  </si>
+  <si>
+    <t>Mean Square Error</t>
+  </si>
+  <si>
+    <t>均方误差</t>
+  </si>
+  <si>
+    <t>\bf{NSF}</t>
+  </si>
+  <si>
+    <t>National science foundation</t>
+  </si>
+  <si>
+    <t>美国国家科学基金会</t>
+  </si>
+  <si>
+    <t>\bf{OFDM}</t>
+  </si>
+  <si>
+    <t>Orthogonal Frequency Division Modulation</t>
+  </si>
+  <si>
+    <t>正交频分复用调制</t>
+  </si>
+  <si>
+    <t>\bf{OOK-RZ}</t>
+  </si>
+  <si>
+    <t>On-Off Keying Return-to-Zero</t>
+  </si>
+  <si>
+    <t>归零开关键控</t>
+  </si>
+  <si>
+    <t>\bf{PAPR}</t>
+  </si>
+  <si>
+    <t>Peak to Average Power Ratio</t>
+  </si>
+  <si>
+    <t>峰均比</t>
+  </si>
+  <si>
+    <t>\bf{PD}</t>
+  </si>
+  <si>
+    <t>Photo Diode</t>
+  </si>
+  <si>
+    <t>光电二极管</t>
+  </si>
+  <si>
+    <t>\bf{PN Seq.}</t>
+  </si>
+  <si>
+    <t>Pseudo-Noise Sequence</t>
+  </si>
+  <si>
+    <t>伪随机序列</t>
+  </si>
+  <si>
+    <t>\bf{QAM}</t>
+  </si>
+  <si>
+    <t>Quadrature amplitude modulation</t>
+  </si>
+  <si>
+    <t>正交幅度调制</t>
+  </si>
+  <si>
+    <t>\bf{RA}</t>
+  </si>
+  <si>
+    <t>Rate Adaptive</t>
+  </si>
+  <si>
+    <t>最大速率准则</t>
+  </si>
+  <si>
+    <t>\bf{SBLA}</t>
+  </si>
+  <si>
+    <t>Simple Blockwise Loading Algorithm</t>
+  </si>
+  <si>
+    <t>简单分组分配算法</t>
+  </si>
+  <si>
+    <t>\bf{SNR}</t>
+  </si>
+  <si>
+    <t>Signal Noise Ratio</t>
+  </si>
+  <si>
+    <t>信噪比</t>
+  </si>
+  <si>
+    <t>\bf{SVD}</t>
+  </si>
+  <si>
+    <t>Singular Value Decomposition</t>
+  </si>
+  <si>
+    <t>奇异值分解</t>
+  </si>
+  <si>
+    <t>\bf{VLC}</t>
+  </si>
+  <si>
+    <t>Visible Light Communication</t>
+  </si>
+  <si>
+    <t>可见光通信</t>
+  </si>
+  <si>
+    <t>\bf{VLCC}</t>
+  </si>
+  <si>
+    <t>Visible Light communication consortium</t>
+  </si>
+  <si>
+    <t>可见光通信协会</t>
+  </si>
+  <si>
+    <t>\bf{WDM}</t>
+  </si>
+  <si>
+    <t>Wavelength Division Multiplexing</t>
+  </si>
+  <si>
+    <t>波分复用</t>
+  </si>
+  <si>
+    <t>\bf{WPAN}</t>
+  </si>
+  <si>
+    <t>Wireless Personal Area Network</t>
+  </si>
+  <si>
+    <t>无线私域网</t>
+  </si>
+  <si>
+    <t>\bf{ZC Seq.}</t>
+  </si>
+  <si>
+    <t>Zadoff-Chu Sequence</t>
+  </si>
+  <si>
+    <t>ZC序列</t>
+  </si>
+  <si>
+    <t>\bf{DAC}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital to Analogue Converter</t>
+  </si>
+  <si>
+    <t>数字模拟变换器</t>
+  </si>
+  <si>
+    <t>Analog to Digital Converter</t>
+  </si>
+  <si>
+    <t>\bf{ADC}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟数字变换器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look Up Table</t>
+  </si>
+  <si>
+    <t>查找表</t>
+  </si>
+  <si>
+    <t>\bf{LUT}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Density Parity Code</t>
+  </si>
+  <si>
+    <t>\bf{LDPC}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>低密度奇偶校验码</t>
+  </si>
+  <si>
+    <t>First In First Out</t>
+  </si>
+  <si>
+    <t>\bf{FIFO}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>先入先出队列</t>
+  </si>
+  <si>
+    <t>\bf{FFT}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Inverse Fast Fourier Transform</t>
-  </si>
-  <si>
-    <t>逆傅里叶变换</t>
-  </si>
-  <si>
-    <t>\bf{IM}</t>
-  </si>
-  <si>
-    <t>Intensity Modulation</t>
-  </si>
-  <si>
-    <t>强度调制</t>
-  </si>
-  <si>
-    <t>\bf{ISI}</t>
-  </si>
-  <si>
-    <t>Inter Symbol Interference</t>
-  </si>
-  <si>
-    <t>符号间干扰</t>
-  </si>
-  <si>
-    <t>\bf{LD}</t>
-  </si>
-  <si>
-    <t>Laser Diode</t>
-  </si>
-  <si>
-    <t>激光二极管</t>
-  </si>
-  <si>
-    <t>\bf{LED}</t>
-  </si>
-  <si>
-    <t>Light Emitting Diode</t>
-  </si>
-  <si>
-    <t>发光二极管</t>
-  </si>
-  <si>
-    <t>\bf{LMMSE}</t>
-  </si>
-  <si>
-    <t>Linear Minimum Mean Square Error</t>
-  </si>
-  <si>
-    <t>线性最小均方误差准则</t>
-  </si>
-  <si>
-    <t>\bf{LOS}</t>
-  </si>
-  <si>
-    <t>Light of Sight</t>
-  </si>
-  <si>
-    <t>直达径</t>
-  </si>
-  <si>
-    <t>\bf{LS}</t>
-  </si>
-  <si>
-    <t>Least Square</t>
-  </si>
-  <si>
-    <t>最小二乘法准则</t>
-  </si>
-  <si>
-    <t>\bf{MA}</t>
-  </si>
-  <si>
-    <t>Margin Adaptive</t>
-  </si>
-  <si>
-    <t>最小发射功率准则</t>
-  </si>
-  <si>
-    <t>\bf{MMSE}</t>
-  </si>
-  <si>
-    <t>Minimum Mean Square Error</t>
-  </si>
-  <si>
-    <t>最小均方误差估计准则</t>
-  </si>
-  <si>
-    <t>\bf{MSE}</t>
-  </si>
-  <si>
-    <t>Mean Square Error</t>
-  </si>
-  <si>
-    <t>均方误差</t>
-  </si>
-  <si>
-    <t>\bf{NSF}</t>
-  </si>
-  <si>
-    <t>National science foundation</t>
-  </si>
-  <si>
-    <t>美国国家科学基金会</t>
-  </si>
-  <si>
-    <t>\bf{OFDM}</t>
-  </si>
-  <si>
-    <t>Orthogonal Frequency Division Modulation</t>
-  </si>
-  <si>
-    <t>正交频分复用调制</t>
-  </si>
-  <si>
-    <t>\bf{OOK-RZ}</t>
-  </si>
-  <si>
-    <t>On-Off Keying Return-to-Zero</t>
-  </si>
-  <si>
-    <t>归零开关键控</t>
-  </si>
-  <si>
-    <t>\bf{PAPR}</t>
-  </si>
-  <si>
-    <t>Peak to Average Power Ratio</t>
-  </si>
-  <si>
-    <t>峰均比</t>
-  </si>
-  <si>
-    <t>\bf{PD}</t>
-  </si>
-  <si>
-    <t>Photo Diode</t>
-  </si>
-  <si>
-    <t>光电二极管</t>
-  </si>
-  <si>
-    <t>\bf{PN Seq.}</t>
-  </si>
-  <si>
-    <t>Pseudo-Noise Sequence</t>
-  </si>
-  <si>
-    <t>伪随机序列</t>
-  </si>
-  <si>
-    <t>\bf{QAM}</t>
-  </si>
-  <si>
-    <t>Quadrature amplitude modulation</t>
-  </si>
-  <si>
-    <t>正交幅度调制</t>
-  </si>
-  <si>
-    <t>\bf{RA}</t>
-  </si>
-  <si>
-    <t>Rate Adaptive</t>
-  </si>
-  <si>
-    <t>最大速率准则</t>
-  </si>
-  <si>
-    <t>\bf{SBLA}</t>
-  </si>
-  <si>
-    <t>Simple Blockwise Loading Algorithm</t>
-  </si>
-  <si>
-    <t>简单分组分配算法</t>
-  </si>
-  <si>
-    <t>\bf{SNR}</t>
-  </si>
-  <si>
-    <t>Signal Noise Ratio</t>
-  </si>
-  <si>
-    <t>信噪比</t>
-  </si>
-  <si>
-    <t>\bf{SVD}</t>
-  </si>
-  <si>
-    <t>Singular Value Decomposition</t>
-  </si>
-  <si>
-    <t>奇异值分解</t>
-  </si>
-  <si>
-    <t>\bf{VLC}</t>
-  </si>
-  <si>
-    <t>Visible Light Communication</t>
-  </si>
-  <si>
-    <t>可见光通信</t>
-  </si>
-  <si>
-    <t>\bf{VLCC}</t>
-  </si>
-  <si>
-    <t>Visible Light communication consortium</t>
-  </si>
-  <si>
-    <t>可见光通信协会</t>
-  </si>
-  <si>
-    <t>\bf{WDM}</t>
-  </si>
-  <si>
-    <t>Wavelength Division Multiplexing</t>
-  </si>
-  <si>
-    <t>波分复用</t>
-  </si>
-  <si>
-    <t>\bf{WPAN}</t>
-  </si>
-  <si>
-    <t>Wireless Personal Area Network</t>
-  </si>
-  <si>
-    <t>无线私域网</t>
-  </si>
-  <si>
-    <t>\bf{ZC Seq.}</t>
-  </si>
-  <si>
-    <t>Zadoff-Chu Sequence</t>
-  </si>
-  <si>
-    <t>ZC序列</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast Fourier Transform</t>
+  </si>
+  <si>
+    <t>快速傅里叶变换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>\bf{CRC}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyclic Redundancy Check</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环冗余校验</t>
+  </si>
+  <si>
+    <t>\bf{RAM}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机存取存储器</t>
+  </si>
+  <si>
+    <t>Random Access Memory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="方正书宋_GBK"/>
@@ -440,17 +532,31 @@
       <sz val="10"/>
       <color indexed="0"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="0"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF212121"/>
+      <name val="Inherit"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -470,27 +576,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,15 +594,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -810,6 +909,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -842,20 +942,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="3.22222222222222" customWidth="1"/>
-    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="5.33333333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="3.19921875" customWidth="1"/>
+    <col min="3" max="3" width="23.69921875" customWidth="1"/>
+    <col min="4" max="4" width="5.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -880,19 +979,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
+      <c r="E2" t="s">
+        <v>138</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -900,19 +999,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -920,19 +1019,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -940,19 +1039,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -960,19 +1059,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
@@ -980,19 +1079,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
@@ -1000,19 +1099,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
@@ -1020,19 +1119,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
+      <c r="C9" t="s">
+        <v>153</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
+      <c r="E9" t="s">
+        <v>154</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -1040,19 +1139,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -1060,19 +1159,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
@@ -1080,19 +1179,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -1100,19 +1199,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
@@ -1120,19 +1219,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
+      <c r="E14" t="s">
+        <v>34</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
@@ -1140,19 +1239,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>45</v>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>46</v>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
@@ -1160,19 +1259,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
@@ -1180,19 +1279,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>51</v>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>52</v>
+      <c r="E17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
@@ -1200,19 +1299,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
+      <c r="C18" t="s">
+        <v>150</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>55</v>
+      <c r="E18" t="s">
+        <v>151</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
@@ -1220,19 +1319,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
+      <c r="C19" t="s">
+        <v>145</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
+      <c r="E19" t="s">
+        <v>147</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
@@ -1240,19 +1339,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
@@ -1260,19 +1359,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
@@ -1280,19 +1379,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -1300,19 +1399,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
-        <v>69</v>
+      <c r="C23" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>70</v>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
@@ -1320,19 +1419,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -1340,19 +1439,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>75</v>
+      <c r="C25" t="s">
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>76</v>
+      <c r="E25" t="s">
+        <v>60</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
@@ -1360,19 +1459,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
@@ -1380,19 +1479,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>81</v>
+      <c r="C27" t="s">
+        <v>142</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>82</v>
+      <c r="E27" t="s">
+        <v>144</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
@@ -1400,19 +1499,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>84</v>
+      <c r="C28" t="s">
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
         <v>4</v>
@@ -1420,19 +1519,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
-        <v>88</v>
+      <c r="E29" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
@@ -1440,19 +1539,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
-        <v>90</v>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
-        <v>91</v>
+      <c r="E30" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
@@ -1460,19 +1559,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
-        <v>93</v>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>94</v>
+      <c r="E31" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F31" t="s">
         <v>4</v>
@@ -1480,19 +1579,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
@@ -1500,19 +1599,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
-        <v>99</v>
+      <c r="C33" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>100</v>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F33" t="s">
         <v>4</v>
@@ -1520,19 +1619,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
@@ -1540,19 +1639,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
-        <v>105</v>
+      <c r="C35" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
@@ -1560,19 +1659,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>108</v>
+      <c r="C36" t="s">
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>109</v>
+      <c r="E36" t="s">
+        <v>87</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
@@ -1580,19 +1679,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>111</v>
+      <c r="C37" t="s">
+        <v>89</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>112</v>
+      <c r="E37" t="s">
+        <v>90</v>
       </c>
       <c r="F37" t="s">
         <v>4</v>
@@ -1600,19 +1699,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>114</v>
+      <c r="C38" t="s">
+        <v>92</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>115</v>
+      <c r="E38" t="s">
+        <v>93</v>
       </c>
       <c r="F38" t="s">
         <v>4</v>
@@ -1620,19 +1719,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>117</v>
+      <c r="C39" t="s">
+        <v>95</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>118</v>
+      <c r="E39" t="s">
+        <v>96</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
@@ -1640,19 +1739,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
@@ -1660,19 +1759,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
-        <v>123</v>
+      <c r="C41" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>124</v>
+      <c r="E41" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
@@ -1680,19 +1779,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
@@ -1700,78 +1799,234 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19.2">
+      <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>128</v>
       </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
         <v>129</v>
       </c>
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
         <v>130</v>
       </c>
-      <c r="F43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
         <v>132</v>
       </c>
-      <c r="D44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="F52" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <sortState ref="A2:F52">
+    <sortCondition ref="A30"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>